--- a/Data/Petteri Salo MM-Kisaveikkaus 2022.xlsx
+++ b/Data/Petteri Salo MM-Kisaveikkaus 2022.xlsx
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Wales</t>
   </si>
   <si>
-    <t xml:space="preserve">Lienel Messi</t>
+    <t xml:space="preserve">Lionel Messi</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -627,16 +627,16 @@
   <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.89"/>
@@ -2325,7 +2325,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2348,7 +2348,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/Petteri Salo MM-Kisaveikkaus 2022.xlsx
+++ b/Data/Petteri Salo MM-Kisaveikkaus 2022.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Iran</t>
   </si>
   <si>
-    <t xml:space="preserve">Christiano Ronaldo</t>
+    <t xml:space="preserve">Cristiano Ronaldo</t>
   </si>
   <si>
     <t xml:space="preserve">Portugali</t>
@@ -627,16 +627,16 @@
   <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.89"/>
@@ -2325,7 +2325,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2348,7 +2348,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
